--- a/HSE_DOC_MAU_2.xlsx
+++ b/HSE_DOC_MAU_2.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1401" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1438" uniqueCount="259">
   <si>
     <t>Carimbo de data/hora</t>
   </si>
@@ -785,6 +785,9 @@
   </si>
   <si>
     <t>lucas.garcias@ufpe.br</t>
+  </si>
+  <si>
+    <t>perola.souza@ufpe.br</t>
   </si>
 </sst>
 </file>
@@ -14388,6 +14391,371 @@
         <v>214</v>
       </c>
     </row>
+    <row r="38">
+      <c r="A38" s="2">
+        <v>44553.6110334838</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="E38" s="3">
+        <v>20.0</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="G38" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="H38" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="I38" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="J38" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="K38" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="L38" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="M38" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="N38" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="O38" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="P38" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="Q38" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="R38" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="S38" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="T38" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="U38" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="V38" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="W38" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="X38" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="Y38" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="Z38" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="AA38" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="AB38" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="AC38" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="AD38" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="AE38" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="AF38" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="AG38" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="AH38" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="AI38" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="AJ38" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="AK38" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="AL38" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="AM38" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="AN38" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="AO38" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="AP38" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="AQ38" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="AR38" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="AS38" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="AT38" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="AU38" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="AV38" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="AW38" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="AX38" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="AY38" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="AZ38" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="BA38" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="BB38" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="BC38" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="BD38" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="BE38" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="BF38" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="BG38" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="BH38" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="BI38" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="BJ38" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="BK38" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="BL38" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="BM38" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="BN38" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="BO38" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="BP38" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="BQ38" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="BR38" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="BS38" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="BT38" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="BU38" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="BV38" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="BX38" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="BY38" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="BZ38" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="CA38" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="CB38" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="CC38" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="CD38" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="CE38" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="CF38" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="CG38" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="CH38" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="CI38" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="CJ38" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="CK38" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="CL38" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="CM38" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="CN38" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="CO38" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="CP38" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="CQ38" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="CR38" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="CS38" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="CT38" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="CU38" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="CV38" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="CW38" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="CX38" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="CY38" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="CZ38" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="DA38" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="DB38" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="DC38" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="DD38" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="DE38" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="DF38" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="DG38" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="DH38" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="DI38" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="DJ38" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="DK38" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="DL38" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="DM38" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="DN38" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="DO38" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="DP38" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="DQ38" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="DR38" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
